--- a/bin/contaminant_literature.xlsx
+++ b/bin/contaminant_literature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelasun/Downloads/contamination-data/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4F3198-C81F-D946-BDBE-3E327BB50B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21D9E25-DA61-8F4D-A834-21DFEBB1BD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="5060" windowWidth="27640" windowHeight="16940" xr2:uid="{4822B3BB-0C93-524F-83D5-E831C419493D}"/>
+    <workbookView xWindow="23700" yWindow="5180" windowWidth="27640" windowHeight="16940" xr2:uid="{4822B3BB-0C93-524F-83D5-E831C419493D}"/>
   </bookViews>
   <sheets>
     <sheet name="genus_table" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="518">
   <si>
     <t>Pathogenicity</t>
   </si>
@@ -1571,13 +1571,34 @@
   </si>
   <si>
     <t>pollen</t>
+  </si>
+  <si>
+    <t>Homo</t>
+  </si>
+  <si>
+    <t>Kim M, Parrish RC 2nd, Shah VS, Ross M, Cormier J, Baig A, Huang CY, Brenner L, Neuringer I, Whiteson K, Harris JK, Willis AD, Lai PS. Host DNA depletion on frozen human respiratory samples enables successful metagenomic sequencing for microbiome studies. Res Sq [Preprint]. 2024 Jan 23:rs.3.rs-3638876. doi: 10.21203/rs.3.rs-3638876/v1. Update in: Commun Biol. 2024 Nov 28;7(1):1590. doi: 10.1038/s42003-024-07290-3. PMID: 38343829; PMCID: PMC10854296.</t>
+  </si>
+  <si>
+    <t>Duffyella</t>
+  </si>
+  <si>
+    <t>Soutar, C.D., Stavrinides, J. Phylogenomic analysis of the Erwiniaceae supports reclassification of Kalamiella piersonii to Pantoea piersonii comb. nov. and Erwinia gerundensis to the new genus Duffyella gen. nov. as Duffyella gerundensis comb. nov. Mol Genet Genomics 297, 213–225 (2022). https://doi.org/10.1007/s00438-021-01829-3</t>
+  </si>
+  <si>
+    <t>Mogibacterium</t>
+  </si>
+  <si>
+    <t>Yahara, H., Yanamoto, S., Takahashi, M., Hamada, Y., Asaka, T., Kitagawa, Y., Moridera, K., Noguchi, K., Maruoka, Y. and Yahara, K., 2024. Shotgun metagenomic analysis of saliva microbiome suggests Mogibacterium as a factor associated with chronic bacterial osteomyelitis. Plos one, 19(5), p.e0302569.</t>
+  </si>
+  <si>
+    <t>Luo, J., Zhao, T., Su, W., Liu, F., Xu, Y. and Li, Z., 2025. Relationship of Mogibacterium in the gut microbiota with early-stage lung cancer. Journal of Applied Microbiology, 136(6), p.lxaf130.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1606,6 +1627,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1627,7 +1660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1635,6 +1668,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1969,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0E6A2D-7F01-AB49-9D89-C2DFE9B51DDB}">
-  <dimension ref="A1:F312"/>
+  <dimension ref="A1:F315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2004,83 +2039,81 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>413</v>
+      <c r="A2" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -2090,12 +2123,12 @@
         <v>164</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2108,15 +2141,15 @@
         <v>164</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -2126,269 +2159,276 @@
         <v>164</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>411</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>424</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>427</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>411</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>424</v>
+        <v>110</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="E17" s="3" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>424</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F19" s="3">
-        <v>68</v>
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>435</v>
+      <c r="F20" s="3">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>8</v>
+        <v>434</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>437</v>
+        <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4</v>
+        <v>437</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -2399,7 +2439,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -2410,7 +2450,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -2421,7 +2461,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -2432,7 +2472,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -2443,7 +2483,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2454,104 +2494,104 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>439</v>
+      <c r="F30" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>267</v>
+      </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
-        <v>4</v>
+      <c r="F32" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>406</v>
+        <v>44</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>442</v>
+      <c r="F33" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>411</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>406</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>411</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>8</v>
@@ -2562,10 +2602,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>8</v>
@@ -2576,7 +2613,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -2587,7 +2627,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>8</v>
@@ -2598,38 +2638,35 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>444</v>
+        <v>51</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>445</v>
+        <v>8</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
@@ -2643,18 +2680,21 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="3">
-        <v>4</v>
+      <c r="F43" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
@@ -2665,155 +2705,155 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>447</v>
+      <c r="F45" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>54</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="3">
-        <v>4</v>
+      <c r="F46" s="3" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" t="s">
-        <v>448</v>
+        <v>59</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>449</v>
+      <c r="F47" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>448</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="3">
-        <v>4</v>
+      <c r="F48" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>450</v>
+        <v>61</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>451</v>
+      <c r="F49" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>450</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="3">
-        <v>4</v>
+      <c r="F50" s="3" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>446</v>
+      <c r="F51" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" t="s">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="3">
-        <v>4</v>
+      <c r="F55" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>8</v>
@@ -2824,7 +2864,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
@@ -2835,55 +2875,55 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" t="s">
-        <v>440</v>
+        <v>70</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>454</v>
+      <c r="F58" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>135</v>
+        <v>440</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>135</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="3">
-        <v>4</v>
+      <c r="F60" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>8</v>
@@ -2894,7 +2934,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -2905,88 +2945,88 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>456</v>
+        <v>76</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>457</v>
+      <c r="F63" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>456</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>110</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="3">
-        <v>4</v>
+      <c r="F65" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>398</v>
+      <c r="F66" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" t="s">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>456</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="3">
-        <v>4</v>
+      <c r="F68" s="3" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>8</v>
@@ -2997,57 +3037,57 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>398</v>
+        <v>8</v>
+      </c>
+      <c r="F70" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="3">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>459</v>
+      <c r="F72" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>32</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="3">
-        <v>4</v>
+      <c r="F73" s="3" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>8</v>
@@ -3058,117 +3098,114 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>460</v>
+      <c r="F75" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>461</v>
+        <v>54</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" t="s">
+        <v>456</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="3">
-        <v>4</v>
+      <c r="F78" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>464</v>
+        <v>92</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>465</v>
+      <c r="F79" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" t="s">
-        <v>54</v>
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="D81" t="s">
+        <v>54</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="3">
-        <v>4</v>
+      <c r="F81" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>8</v>
@@ -3179,7 +3216,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="D83" t="s">
+        <v>54</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
@@ -3190,7 +3230,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>8</v>
@@ -3201,10 +3241,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>8</v>
@@ -3215,7 +3252,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>54</v>
@@ -3229,7 +3266,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>54</v>
@@ -3243,7 +3280,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>8</v>
@@ -3254,7 +3294,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
@@ -3265,7 +3305,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>8</v>
@@ -3276,7 +3316,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -3287,7 +3327,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>8</v>
@@ -3298,10 +3338,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D93" t="s">
-        <v>450</v>
+        <v>106</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>8</v>
@@ -3312,7 +3349,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="D94" t="s">
+        <v>450</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
@@ -3323,35 +3363,35 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>466</v>
+      <c r="F95" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>110</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="3">
-        <v>4</v>
+      <c r="F96" s="3" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>8</v>
@@ -3362,35 +3402,35 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B98" t="s">
-        <v>43</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>467</v>
+        <v>112</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>468</v>
+      <c r="F98" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F99" s="3">
-        <v>4</v>
+      <c r="F99" s="3" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
@@ -3401,7 +3441,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
@@ -3412,7 +3452,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
@@ -3423,32 +3463,32 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D103" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>447</v>
+      <c r="F103" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="D104" t="s">
+        <v>54</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F104" s="3">
-        <v>4</v>
+      <c r="F104" s="3" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>8</v>
@@ -3459,7 +3499,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>8</v>
@@ -3470,7 +3510,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>8</v>
@@ -3481,7 +3521,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>8</v>
@@ -3492,7 +3532,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>8</v>
@@ -3503,7 +3543,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>8</v>
@@ -3514,7 +3554,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>8</v>
@@ -3525,7 +3565,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>8</v>
@@ -3536,7 +3576,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>8</v>
@@ -3547,7 +3587,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>8</v>
@@ -3558,35 +3598,35 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B115" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>458</v>
+      <c r="F115" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>110</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F116" s="3">
-        <v>4</v>
+      <c r="F116" s="3" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>8</v>
@@ -3597,88 +3637,85 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>469</v>
+      <c r="F118" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" t="s">
+        <v>135</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F121" s="3">
-        <v>4</v>
+      <c r="F121" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>471</v>
+      <c r="F122" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="3">
-        <v>4</v>
+      <c r="F123" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C124" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>8</v>
@@ -3689,7 +3726,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -3703,7 +3740,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>8</v>
@@ -3714,7 +3754,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>8</v>
@@ -3725,7 +3765,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>8</v>
@@ -3736,7 +3776,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>8</v>
@@ -3747,52 +3787,52 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
-        <v>4</v>
-      </c>
-      <c r="D130" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>472</v>
+      <c r="F130" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
       </c>
+      <c r="D131" t="s">
+        <v>135</v>
+      </c>
       <c r="E131" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" s="3">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>8</v>
@@ -3803,7 +3843,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>8</v>
@@ -3814,7 +3854,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>8</v>
@@ -3825,55 +3865,52 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B136" t="s">
-        <v>43</v>
-      </c>
-      <c r="C136" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F136" s="3" t="s">
-        <v>473</v>
+      <c r="F136" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -3882,49 +3919,52 @@
         <v>8</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="E140" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F140" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C141" t="s">
-        <v>197</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="3"/>
       <c r="F141" s="3" t="s">
-        <v>398</v>
+        <v>477</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="C142" t="s">
+        <v>197</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F142" s="3">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>8</v>
@@ -3935,7 +3975,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>8</v>
@@ -3946,7 +3986,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>8</v>
@@ -3957,74 +3997,74 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B146" t="s">
-        <v>72</v>
-      </c>
-      <c r="C146" t="s">
-        <v>440</v>
+        <v>162</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>478</v>
+        <v>8</v>
+      </c>
+      <c r="F146" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="B147" t="s">
+        <v>72</v>
+      </c>
+      <c r="C147" t="s">
+        <v>440</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" s="3">
-        <v>4</v>
+        <v>164</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B148" t="s">
-        <v>43</v>
-      </c>
-      <c r="C148" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>479</v>
+      <c r="F148" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="B149" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F150" s="3">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>8</v>
@@ -4035,7 +4075,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>8</v>
@@ -4046,7 +4086,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>8</v>
@@ -4057,34 +4097,34 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F154" s="3" t="s">
-        <v>480</v>
+      <c r="F154" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D155" s="3"/>
+        <v>172</v>
+      </c>
       <c r="E155" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F155" s="3">
-        <v>4</v>
+      <c r="F155" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>174</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
         <v>8</v>
       </c>
@@ -4094,7 +4134,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>8</v>
@@ -4105,33 +4145,33 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D158" s="3"/>
+        <v>175</v>
+      </c>
       <c r="E158" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>481</v>
+      <c r="F158" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>178</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F159" s="3">
-        <v>4</v>
+      <c r="F159" s="3" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>8</v>
@@ -4142,74 +4182,74 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F161" s="3" t="s">
-        <v>471</v>
+      <c r="F161" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F162" s="3">
-        <v>4</v>
+      <c r="F162" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D163" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F163" s="3" t="s">
-        <v>446</v>
+      <c r="F163" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B164" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D164" t="s">
-        <v>456</v>
+        <v>54</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>197</v>
+      </c>
+      <c r="D165" t="s">
+        <v>456</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F165" s="3">
-        <v>4</v>
+      <c r="F165" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>8</v>
@@ -4220,7 +4260,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>8</v>
@@ -4231,7 +4271,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>8</v>
@@ -4242,52 +4282,46 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B169" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F169" s="3" t="s">
-        <v>482</v>
+      <c r="F169" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B170" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>483</v>
+        <v>8</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>19</v>
+        <v>483</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -4304,7 +4338,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -4313,101 +4347,107 @@
         <v>54</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
       </c>
-      <c r="C174" t="s">
-        <v>4</v>
-      </c>
-      <c r="E174" s="3"/>
+      <c r="D174" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F174" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" s="3"/>
       <c r="F175" s="3" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C176" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>398</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B177" t="s">
-        <v>6</v>
-      </c>
-      <c r="D177" t="s">
-        <v>456</v>
-      </c>
-      <c r="E177" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="C177" t="s">
+        <v>197</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F177" s="3" t="s">
-        <v>463</v>
+        <v>398</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B178" t="s">
-        <v>43</v>
-      </c>
-      <c r="C178" t="s">
-        <v>197</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>456</v>
+      </c>
+      <c r="E178" s="3"/>
       <c r="F178" s="3" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="B179" t="s">
+        <v>43</v>
+      </c>
+      <c r="C179" t="s">
+        <v>197</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F179" s="3">
-        <v>4</v>
+      <c r="F179" s="3" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>8</v>
@@ -4418,7 +4458,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>8</v>
@@ -4429,22 +4469,18 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D182" s="3"/>
+        <v>201</v>
+      </c>
       <c r="E182" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F182" s="3" t="s">
-        <v>398</v>
+      <c r="F182" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>4</v>
@@ -4459,65 +4495,66 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B184" t="s">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>488</v>
+        <v>398</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F185" s="3">
-        <v>4</v>
+        <v>164</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>205</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" s="3"/>
       <c r="E186" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F186" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F187" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>197</v>
@@ -4531,10 +4568,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C189" t="s">
+        <v>207</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>197</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F189" s="3">
         <v>7</v>
@@ -4542,7 +4582,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4553,7 +4593,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C191" t="s">
         <v>197</v>
@@ -4564,21 +4604,18 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C192" t="s">
         <v>197</v>
       </c>
-      <c r="D192" t="s">
-        <v>54</v>
-      </c>
       <c r="F192" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C193" t="s">
         <v>197</v>
@@ -4587,12 +4624,12 @@
         <v>54</v>
       </c>
       <c r="F193" s="3">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C194" t="s">
         <v>197</v>
@@ -4600,120 +4637,120 @@
       <c r="D194" t="s">
         <v>54</v>
       </c>
-      <c r="E194" t="s">
-        <v>8</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>489</v>
+      <c r="F194" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B195" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="C195" t="s">
         <v>197</v>
       </c>
+      <c r="D195" t="s">
+        <v>54</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
       <c r="F195" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
       </c>
       <c r="C196" t="s">
         <v>197</v>
       </c>
-      <c r="F196" s="3">
-        <v>7</v>
+      <c r="F196" s="3" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B197" t="s">
-        <v>3</v>
+        <v>215</v>
       </c>
       <c r="C197" t="s">
         <v>197</v>
       </c>
-      <c r="E197" t="s">
-        <v>8</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>491</v>
+      <c r="F197" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B198" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="B199" t="s">
+        <v>72</v>
       </c>
       <c r="C199" t="s">
-        <v>197</v>
-      </c>
-      <c r="D199" t="s">
-        <v>407</v>
+        <v>177</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
-      </c>
-      <c r="F199" s="3">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C200" t="s">
-        <v>177</v>
+        <v>197</v>
+      </c>
+      <c r="D200" t="s">
+        <v>407</v>
       </c>
       <c r="E200" t="s">
         <v>8</v>
       </c>
-      <c r="F200" s="3" t="s">
-        <v>489</v>
+      <c r="F200" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C201" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E201" t="s">
         <v>8</v>
       </c>
-      <c r="F201" s="3">
-        <v>7</v>
+      <c r="F201" s="3" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C202" t="s">
         <v>197</v>
@@ -4727,7 +4764,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C203" t="s">
         <v>197</v>
@@ -4741,63 +4778,66 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C204" t="s">
         <v>197</v>
       </c>
-      <c r="D204" t="s">
-        <v>54</v>
-      </c>
       <c r="E204" t="s">
         <v>8</v>
       </c>
-      <c r="F204" s="3" t="s">
-        <v>493</v>
+      <c r="F204" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C205" t="s">
         <v>197</v>
       </c>
+      <c r="D205" t="s">
+        <v>54</v>
+      </c>
       <c r="E205" t="s">
         <v>8</v>
       </c>
-      <c r="F205" s="3">
-        <v>7</v>
+      <c r="F205" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C206" t="s">
         <v>197</v>
       </c>
-      <c r="D206" t="s">
-        <v>494</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>495</v>
+      <c r="E206" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E207" t="s">
-        <v>21</v>
-      </c>
-      <c r="F207" s="3">
-        <v>9</v>
+        <v>225</v>
+      </c>
+      <c r="C207" t="s">
+        <v>197</v>
+      </c>
+      <c r="D207" t="s">
+        <v>494</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E208" t="s">
         <v>21</v>
@@ -4808,18 +4848,18 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E209" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F209" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E210" t="s">
         <v>26</v>
@@ -4830,7 +4870,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E211" t="s">
         <v>26</v>
@@ -4841,21 +4881,18 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C212" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="E212" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F212" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C213" t="s">
         <v>197</v>
@@ -4869,35 +4906,38 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B214" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="C214" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="E214" t="s">
         <v>19</v>
       </c>
-      <c r="F214" s="3" t="s">
-        <v>496</v>
+      <c r="F214" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="B215" t="s">
+        <v>43</v>
+      </c>
+      <c r="C215" t="s">
+        <v>29</v>
       </c>
       <c r="E215" t="s">
         <v>19</v>
       </c>
-      <c r="F215" s="3">
-        <v>12</v>
+      <c r="F215" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E216" t="s">
         <v>19</v>
@@ -4908,63 +4948,63 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D217" t="s">
-        <v>110</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>497</v>
+        <v>235</v>
+      </c>
+      <c r="E217" t="s">
+        <v>19</v>
+      </c>
+      <c r="F217" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C218" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="D218" t="s">
-        <v>32</v>
-      </c>
-      <c r="E218" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C219" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>315</v>
-      </c>
-      <c r="F219" s="3">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="E219" t="s">
+        <v>164</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C220" t="s">
-        <v>510</v>
+        <v>197</v>
+      </c>
+      <c r="D220" t="s">
+        <v>315</v>
       </c>
       <c r="F220" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C221" t="s">
-        <v>177</v>
+        <v>510</v>
       </c>
       <c r="F221" s="3">
         <v>14</v>
@@ -4972,10 +5012,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C222" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="F222" s="3">
         <v>14</v>
@@ -4983,13 +5023,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C223" t="s">
-        <v>4</v>
-      </c>
-      <c r="E223" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="F223" s="3">
         <v>14</v>
@@ -4997,7 +5034,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C224" t="s">
         <v>4</v>
@@ -5011,7 +5048,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C225" t="s">
         <v>4</v>
@@ -5025,7 +5062,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C226" t="s">
         <v>4</v>
@@ -5039,7 +5076,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C227" t="s">
         <v>4</v>
@@ -5053,7 +5090,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C228" t="s">
         <v>4</v>
@@ -5067,68 +5104,71 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B229" t="s">
-        <v>6</v>
-      </c>
-      <c r="D229" t="s">
-        <v>110</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>499</v>
+        <v>248</v>
+      </c>
+      <c r="C229" t="s">
+        <v>4</v>
+      </c>
+      <c r="E229" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
       </c>
       <c r="D230" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B231" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="D231" t="s">
-        <v>456</v>
+        <v>54</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>110</v>
-      </c>
-      <c r="F232" s="3">
-        <v>16</v>
+        <v>456</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D233" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F233" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D234" t="s">
         <v>54</v>
@@ -5139,46 +5179,46 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B235" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="D235" t="s">
-        <v>502</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>503</v>
+        <v>54</v>
+      </c>
+      <c r="F235" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D236" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
       </c>
       <c r="D237" t="s">
-        <v>54</v>
-      </c>
-      <c r="F237" s="3">
-        <v>17</v>
+        <v>450</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D238" t="s">
         <v>54</v>
@@ -5189,7 +5229,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D239" t="s">
         <v>54</v>
@@ -5200,41 +5240,38 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B240" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="D240" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F240" s="3">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D241" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="F241" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
       </c>
       <c r="D242" t="s">
-        <v>406</v>
+        <v>110</v>
       </c>
       <c r="F242" s="3">
         <v>34</v>
@@ -5242,16 +5279,13 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
       </c>
-      <c r="C243" t="s">
-        <v>505</v>
-      </c>
       <c r="D243" t="s">
-        <v>267</v>
+        <v>406</v>
       </c>
       <c r="F243" s="3">
         <v>34</v>
@@ -5259,7 +5293,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5267,19 +5301,22 @@
       <c r="C244" t="s">
         <v>505</v>
       </c>
+      <c r="D244" t="s">
+        <v>267</v>
+      </c>
       <c r="F244" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
       </c>
-      <c r="D245" t="s">
-        <v>267</v>
+      <c r="C245" t="s">
+        <v>505</v>
       </c>
       <c r="F245" s="3">
         <v>34</v>
@@ -5287,28 +5324,28 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
       </c>
-      <c r="C246" t="s">
-        <v>4</v>
-      </c>
       <c r="D246" t="s">
         <v>267</v>
       </c>
       <c r="F246" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
       </c>
+      <c r="C247" t="s">
+        <v>4</v>
+      </c>
       <c r="D247" t="s">
         <v>267</v>
       </c>
@@ -5318,10 +5355,10 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B248" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D248" t="s">
         <v>267</v>
@@ -5332,10 +5369,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D249" t="s">
         <v>267</v>
@@ -5346,10 +5383,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D250" t="s">
         <v>267</v>
@@ -5360,7 +5397,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B251" t="s">
         <v>13</v>
@@ -5374,10 +5411,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D252" t="s">
         <v>267</v>
@@ -5388,10 +5425,10 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D253" t="s">
         <v>267</v>
@@ -5402,7 +5439,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B254" t="s">
         <v>13</v>
@@ -5416,7 +5453,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>273</v>
+        <v>402</v>
       </c>
       <c r="B255" t="s">
         <v>13</v>
@@ -5430,10 +5467,10 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D256" t="s">
         <v>267</v>
@@ -5444,7 +5481,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -5458,7 +5495,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -5472,7 +5509,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -5486,7 +5523,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -5500,7 +5537,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -5514,7 +5551,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -5528,7 +5565,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -5542,7 +5579,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -5556,10 +5593,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B265" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D265" t="s">
         <v>267</v>
@@ -5570,7 +5607,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B266" t="s">
         <v>13</v>
@@ -5584,10 +5621,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D267" t="s">
         <v>267</v>
@@ -5598,10 +5635,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D268" t="s">
         <v>267</v>
@@ -5612,10 +5649,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B269" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D269" t="s">
         <v>267</v>
@@ -5626,7 +5663,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -5640,7 +5677,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
@@ -5654,7 +5691,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -5668,10 +5705,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>403</v>
+        <v>290</v>
       </c>
       <c r="B273" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D273" t="s">
         <v>267</v>
@@ -5682,10 +5719,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D274" t="s">
         <v>267</v>
@@ -5696,7 +5733,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -5710,7 +5747,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -5724,7 +5761,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -5738,7 +5775,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -5752,10 +5789,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B279" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D279" t="s">
         <v>267</v>
@@ -5766,30 +5803,30 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B280" t="s">
-        <v>3</v>
-      </c>
-      <c r="C280" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D280" t="s">
-        <v>456</v>
+        <v>267</v>
       </c>
       <c r="F280" s="3">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B281" t="s">
         <v>3</v>
       </c>
+      <c r="C281" t="s">
+        <v>4</v>
+      </c>
       <c r="D281" t="s">
-        <v>110</v>
+        <v>456</v>
       </c>
       <c r="F281" s="3">
         <v>38</v>
@@ -5797,7 +5834,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B282" t="s">
         <v>3</v>
@@ -5811,7 +5848,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B283" t="s">
         <v>3</v>
@@ -5819,13 +5856,13 @@
       <c r="D283" t="s">
         <v>110</v>
       </c>
-      <c r="F283" s="3" t="s">
-        <v>509</v>
+      <c r="F283" s="3">
+        <v>38</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B284" t="s">
         <v>3</v>
@@ -5833,13 +5870,13 @@
       <c r="D284" t="s">
         <v>110</v>
       </c>
-      <c r="F284" s="3">
-        <v>38</v>
+      <c r="F284" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B285" t="s">
         <v>3</v>
@@ -5853,7 +5890,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B286" t="s">
         <v>3</v>
@@ -5867,7 +5904,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B287" t="s">
         <v>3</v>
@@ -5881,7 +5918,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B288" t="s">
         <v>3</v>
@@ -5895,7 +5932,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B289" t="s">
         <v>3</v>
@@ -5909,21 +5946,21 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B290" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D290" t="s">
         <v>110</v>
       </c>
       <c r="F290" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B291" t="s">
         <v>6</v>
@@ -5937,7 +5974,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
@@ -5951,55 +5988,52 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
       </c>
-      <c r="C293" t="s">
-        <v>505</v>
-      </c>
       <c r="D293" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F293" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B294" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294" t="s">
+        <v>505</v>
+      </c>
+      <c r="D294" t="s">
+        <v>135</v>
+      </c>
+      <c r="F294" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B295" t="s">
         <v>3</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D295" t="s">
         <v>110</v>
       </c>
-      <c r="F294" s="3">
+      <c r="F295" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
         <v>311</v>
-      </c>
-      <c r="B295" t="s">
-        <v>43</v>
-      </c>
-      <c r="C295" t="s">
-        <v>4</v>
-      </c>
-      <c r="D295" t="s">
-        <v>407</v>
-      </c>
-      <c r="F295" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="B296" t="s">
         <v>43</v>
@@ -6016,7 +6050,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B297" t="s">
         <v>43</v>
@@ -6024,41 +6058,44 @@
       <c r="C297" t="s">
         <v>4</v>
       </c>
+      <c r="D297" t="s">
+        <v>407</v>
+      </c>
       <c r="F297" s="3">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B298" t="s">
+        <v>43</v>
+      </c>
+      <c r="C298" t="s">
+        <v>4</v>
+      </c>
+      <c r="F298" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B299" t="s">
         <v>13</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D299" t="s">
         <v>315</v>
       </c>
-      <c r="F298" s="3">
+      <c r="F299" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>316</v>
-      </c>
-      <c r="B299" t="s">
-        <v>3</v>
-      </c>
-      <c r="C299" t="s">
-        <v>4</v>
-      </c>
-      <c r="F299" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="B300" t="s">
         <v>3</v>
@@ -6067,71 +6104,71 @@
         <v>4</v>
       </c>
       <c r="F300" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>4</v>
+      </c>
+      <c r="F301" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>318</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B302" t="s">
         <v>43</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D302" t="s">
         <v>54</v>
       </c>
-      <c r="F301" s="3">
+      <c r="F302" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="3" t="s">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="B302" t="s">
-        <v>6</v>
-      </c>
-      <c r="C302" t="s">
-        <v>4</v>
-      </c>
-      <c r="D302" t="s">
-        <v>450</v>
-      </c>
-      <c r="F302" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>385</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
       </c>
       <c r="C303" t="s">
-        <v>506</v>
+        <v>4</v>
+      </c>
+      <c r="D303" t="s">
+        <v>450</v>
       </c>
       <c r="F303" s="3">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B304" t="s">
-        <v>43</v>
-      </c>
-      <c r="D304" t="s">
-        <v>507</v>
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>506</v>
       </c>
       <c r="F304" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B305" t="s">
         <v>43</v>
@@ -6145,7 +6182,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B306" t="s">
         <v>43</v>
@@ -6159,7 +6196,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B307" t="s">
         <v>43</v>
@@ -6173,7 +6210,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B308" t="s">
         <v>43</v>
@@ -6187,7 +6224,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B309" t="s">
         <v>43</v>
@@ -6201,7 +6238,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B310" t="s">
         <v>43</v>
@@ -6215,7 +6252,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B311" t="s">
         <v>43</v>
@@ -6229,16 +6266,58 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B312" t="s">
         <v>43</v>
       </c>
       <c r="D312" t="s">
+        <v>507</v>
+      </c>
+      <c r="F312" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>397</v>
+      </c>
+      <c r="B313" t="s">
+        <v>43</v>
+      </c>
+      <c r="D313" t="s">
         <v>508</v>
       </c>
-      <c r="F312" s="3">
+      <c r="F313" s="3">
         <v>67</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>513</v>
+      </c>
+      <c r="B314" t="s">
+        <v>3</v>
+      </c>
+      <c r="D314" t="s">
+        <v>267</v>
+      </c>
+      <c r="F314" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>515</v>
+      </c>
+      <c r="B315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="s">
+        <v>494</v>
+      </c>
+      <c r="F315" s="3">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6248,10 +6327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6544894E-BE1B-6143-B221-82724E45982C}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6808,6 +6887,38 @@
         <v>408</v>
       </c>
     </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>517</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bin/contaminant_literature.xlsx
+++ b/bin/contaminant_literature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelasun/Downloads/contamination-data/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21D9E25-DA61-8F4D-A834-21DFEBB1BD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DB0A96-509E-6A4C-818B-25F50BB57151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23700" yWindow="5180" windowWidth="27640" windowHeight="16940" xr2:uid="{4822B3BB-0C93-524F-83D5-E831C419493D}"/>
+    <workbookView xWindow="10320" yWindow="4560" windowWidth="27640" windowHeight="16940" xr2:uid="{4822B3BB-0C93-524F-83D5-E831C419493D}"/>
   </bookViews>
   <sheets>
     <sheet name="genus_table" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="547">
   <si>
     <t>Pathogenicity</t>
   </si>
@@ -1387,9 +1387,6 @@
     <t>gut,resp_tract,mouth</t>
   </si>
   <si>
-    <t>4,15</t>
-  </si>
-  <si>
     <t>gut,resp_tract</t>
   </si>
   <si>
@@ -1534,9 +1531,6 @@
     <t>13,15</t>
   </si>
   <si>
-    <t>13,37</t>
-  </si>
-  <si>
     <t>15,39</t>
   </si>
   <si>
@@ -1567,9 +1561,6 @@
     <t>mouth,soft_tissue</t>
   </si>
   <si>
-    <t>34, 38</t>
-  </si>
-  <si>
     <t>pollen</t>
   </si>
   <si>
@@ -1592,6 +1583,102 @@
   </si>
   <si>
     <t>Luo, J., Zhao, T., Su, W., Liu, F., Xu, Y. and Li, Z., 2025. Relationship of Mogibacterium in the gut microbiota with early-stage lung cancer. Journal of Applied Microbiology, 136(6), p.lxaf130.</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Könönen, E., Fteita, D., Gursoy, U.K. and Gursoy, M., 2022. Prevotella species as oral residents and infectious agents with potential impact on systemic conditions. Journal of Oral Microbiology, 14(1), p.2079814.</t>
+  </si>
+  <si>
+    <t>4,15,73</t>
+  </si>
+  <si>
+    <t>13,37,74</t>
+  </si>
+  <si>
+    <t>Yuan, C., Yin, Z., Wang, J., Qian, C., Wei, Y., Zhang, S., Jiang, L. and Liu, B., 2019. Comparative genomic analysis of Citrobacter and key genes essential for the pathogenicity of Citrobacter koseri. Frontiers in Microbiology, 10, p.2774.</t>
+  </si>
+  <si>
+    <t>Photobacterium</t>
+  </si>
+  <si>
+    <t>Labella, A.M., Arahal, D.R., Castro, D., Lemos, M.L. and Borrego, J.J., 2017. Revisiting the genus Photobacterium: taxonomy, ecology and pathogenesis. Int Microbiol, 20(1), pp.1-10.</t>
+  </si>
+  <si>
+    <t>Pectobacteria</t>
+  </si>
+  <si>
+    <t>Davidsson, P.R., Kariola, T., Niemi, O. and Palva, E.T., 2013. Pathogenicity of and plant immunity to soft rot pectobacteria. Frontiers in plant science, 4, p.191.</t>
+  </si>
+  <si>
+    <t>Deschaght P, Janssens M, Vaneechoutte M, Wauters G. 2012. Psychrobacter isolates of human origin, other than Psychrobacter phenylpyruvicus, are predominantly Psychrobacter faecalis and Psychrobacter pulmonis, with emended description of P faecalis. Int J Syst Evol Microbiol 62:671–674.</t>
+  </si>
+  <si>
+    <t>34,38</t>
+  </si>
+  <si>
+    <t>Welter, D.K., Ruaud, A., Henseler, Z.M., De Jong, H.N., Van Coeverden de Groot, P., Michaux, J., Gormezano, L., Waters, J.L., Youngblut, N.D. and Ley, R.E., 2021. Free-living, psychrotrophic bacteria of the genus psychrobacter are descendants of pathobionts. Msystems, 6(2), pp.10-1128.</t>
+  </si>
+  <si>
+    <t>4,77,78</t>
+  </si>
+  <si>
+    <t>Makizumi, Y., Igarashi, M., Gotoh, K., Murao, K., Yamamoto, M., Udonsri, N., Ochiai, H., Thummabenjapone, P. and Kaku, H., 2011. Genetic diversity and pathogenicity of cucurbit-associated Acidovorax. Journal of General Plant Pathology, 77(1), pp.24-32.</t>
+  </si>
+  <si>
+    <t>4,79</t>
+  </si>
+  <si>
+    <t>Letek, M., Gonzalez, P., MacArthur, I., Rodríguez, H., Freeman, T.C., Valero-Rello, A., Blanco, M., Buckley, T., Cherevach, I., Fahey, R. and Hapeshi, A., 2010. The genome of a pathogenic Rhodococcus: cooptive virulence underpinned by key gene acquisitions. PLoS genetics, 6(9), p.e1001145.</t>
+  </si>
+  <si>
+    <t>4,80</t>
+  </si>
+  <si>
+    <t>sterile_water,extraction_kit</t>
+  </si>
+  <si>
+    <t>4,81</t>
+  </si>
+  <si>
+    <t>Ghafari, S., Alavi, S.M. and Khaghani, S., 2024. Potentially pathogenic culturable bacteria in hemodialysis waters. BMC microbiology, 24(1), p.276.</t>
+  </si>
+  <si>
+    <t>Caproicibacterium</t>
+  </si>
+  <si>
+    <t>Zeng, C., Zeng, X., Xia, S. and Ye, G., 2024. Caproicibacterium argilliputei sp. nov., a novel caproic acid producing anaerobic bacterium isolated from pit clay. International Journal of Systematic and Evolutionary Microbiology, 74(1), p.006246.</t>
+  </si>
+  <si>
+    <t>Algoriphagus</t>
+  </si>
+  <si>
+    <t>Ali, S., Xie, J., Zada, S., Hu, Z., Zhang, Y., Cai, R. and Wang, H., 2022. Bacterial community structure and bacterial isolates having antimicrobial potential in shrimp pond aquaculture. AMB Express, 12(1), p.82.</t>
+  </si>
+  <si>
+    <t>Diaphorobacter</t>
+  </si>
+  <si>
+    <t>lung,gut</t>
+  </si>
+  <si>
+    <t>Ni, Y., Li, R., Shen, X., Yi, D., Ren, Y., Wang, F., Geng, Y. and You, Q., 2024. Diaphorobacter nitroreducens synergize with oxaliplatin to reduce tumor burden in mice with lung adenocarcinoma. Msystems, 9(4), pp.e01323-23.</t>
+  </si>
+  <si>
+    <t>Leclercia</t>
+  </si>
+  <si>
+    <t>food,gut,resp_tract,mucosa</t>
+  </si>
+  <si>
+    <t>Zayet, S., Lang, S., Garnier, P., Pierron, A., Plantin, J., Toko, L., Royer, P.Y., Villemain, M., Klopfenstein, T. and Gendrin, V., 2021. Leclercia adecarboxylata as emerging pathogen in human infections: clinical features and antimicrobial susceptibility testing. Pathogens, 10(11), p.1399.</t>
+  </si>
+  <si>
+    <t>Farhat, M., Alkharsah, K.R., Alkhamis, F.I. and Bukharie, H.A., 2019. Metagenomic study on the composition of culturable and non-culturable bacteria in tap water and biofilms at intensive care units. Journal of Water and Health, 17(1), pp.72-83.</t>
+  </si>
+  <si>
+    <t>4,86</t>
   </si>
 </sst>
 </file>
@@ -2004,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0E6A2D-7F01-AB49-9D89-C2DFE9B51DDB}">
-  <dimension ref="A1:F315"/>
+  <dimension ref="A1:F322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="B333" sqref="B333"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="I314" sqref="I314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2040,7 +2127,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>16</v>
@@ -2615,14 +2702,17 @@
       <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="3">
-        <v>4</v>
+      <c r="F38" s="3" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2743,6 +2833,9 @@
       <c r="A48" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
       <c r="D48" t="s">
         <v>448</v>
       </c>
@@ -2750,7 +2843,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2772,13 +2865,13 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
+        <v>449</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2817,7 +2910,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2837,7 +2930,7 @@
         <v>8</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2898,7 +2991,7 @@
         <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2918,7 +3011,7 @@
         <v>8</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2962,13 +3055,13 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
+        <v>455</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3015,13 +3108,13 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3082,7 +3175,7 @@
         <v>8</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3121,7 +3214,7 @@
         <v>8</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3132,13 +3225,13 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
+        <v>460</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3152,13 +3245,13 @@
         <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3180,13 +3273,13 @@
         <v>6</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3352,7 +3445,7 @@
         <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
@@ -3386,7 +3479,7 @@
         <v>8</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -3419,13 +3512,13 @@
         <v>43</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -3621,7 +3714,7 @@
         <v>8</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -3660,7 +3753,7 @@
         <v>8</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -3677,7 +3770,7 @@
         <v>8</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -3688,7 +3781,7 @@
         <v>8</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -3710,18 +3803,21 @@
         <v>8</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>139</v>
       </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
       <c r="E124" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" s="3">
-        <v>4</v>
+        <v>532</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -3813,7 +3909,7 @@
         <v>8</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -3827,7 +3923,7 @@
         <v>19</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -3888,7 +3984,7 @@
         <v>8</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -3905,7 +4001,7 @@
         <v>8</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -3919,7 +4015,7 @@
         <v>8</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -3933,7 +4029,7 @@
         <v>8</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -3945,7 +4041,7 @@
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -3966,11 +4062,17 @@
       <c r="A143" s="3" t="s">
         <v>159</v>
       </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
       <c r="E143" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F143" s="3">
-        <v>4</v>
+      <c r="F143" s="3" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -3988,11 +4090,17 @@
       <c r="A145" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="B145" t="s">
+        <v>515</v>
+      </c>
+      <c r="D145" t="s">
+        <v>267</v>
+      </c>
       <c r="E145" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F145" s="3">
-        <v>4</v>
+      <c r="F145" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -4020,7 +4128,7 @@
         <v>164</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -4048,7 +4156,7 @@
         <v>8</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4059,7 +4167,7 @@
         <v>19</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4114,7 +4222,7 @@
         <v>8</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4166,7 +4274,7 @@
         <v>8</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -4199,7 +4307,7 @@
         <v>8</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -4238,13 +4346,13 @@
         <v>197</v>
       </c>
       <c r="D165" t="s">
+        <v>455</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -4302,7 +4410,7 @@
         <v>8</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -4313,10 +4421,10 @@
         <v>43</v>
       </c>
       <c r="E171" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F171" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -4333,7 +4441,7 @@
         <v>19</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -4350,7 +4458,7 @@
         <v>19</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -4367,7 +4475,7 @@
         <v>8</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -4382,7 +4490,7 @@
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -4396,7 +4504,7 @@
         <v>8</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -4421,11 +4529,11 @@
         <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -4442,18 +4550,27 @@
         <v>8</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="B180" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="E180" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F180" s="3">
-        <v>4</v>
+      <c r="F180" s="3" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -4497,6 +4614,9 @@
       <c r="A184" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="B184" t="s">
+        <v>515</v>
+      </c>
       <c r="C184" s="3" t="s">
         <v>4</v>
       </c>
@@ -4523,7 +4643,7 @@
         <v>164</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -4655,7 +4775,7 @@
         <v>8</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -4669,7 +4789,7 @@
         <v>197</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -4697,7 +4817,7 @@
         <v>8</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -4714,7 +4834,7 @@
         <v>19</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -4745,7 +4865,7 @@
         <v>8</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -4804,7 +4924,7 @@
         <v>8</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -4829,16 +4949,19 @@
         <v>197</v>
       </c>
       <c r="D207" t="s">
+        <v>493</v>
+      </c>
+      <c r="F207" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>226</v>
       </c>
+      <c r="B208" t="s">
+        <v>515</v>
+      </c>
       <c r="E208" t="s">
         <v>21</v>
       </c>
@@ -4932,7 +5055,7 @@
         <v>19</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -4965,13 +5088,16 @@
         <v>110</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>237</v>
       </c>
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
       <c r="C219" t="s">
         <v>4</v>
       </c>
@@ -4982,7 +5108,7 @@
         <v>164</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -5004,7 +5130,7 @@
         <v>239</v>
       </c>
       <c r="C221" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F221" s="3">
         <v>14</v>
@@ -5127,7 +5253,7 @@
         <v>110</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -5138,7 +5264,7 @@
         <v>54</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -5149,10 +5275,10 @@
         <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -5196,10 +5322,10 @@
         <v>13</v>
       </c>
       <c r="D236" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -5210,10 +5336,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -5299,7 +5425,7 @@
         <v>6</v>
       </c>
       <c r="C244" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D244" t="s">
         <v>267</v>
@@ -5316,7 +5442,7 @@
         <v>6</v>
       </c>
       <c r="C245" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F245" s="3">
         <v>34</v>
@@ -5826,7 +5952,7 @@
         <v>4</v>
       </c>
       <c r="D281" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F281" s="3">
         <v>38</v>
@@ -5871,7 +5997,7 @@
         <v>110</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -6008,7 +6134,7 @@
         <v>6</v>
       </c>
       <c r="C294" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D294" t="s">
         <v>135</v>
@@ -6146,7 +6272,7 @@
         <v>4</v>
       </c>
       <c r="D303" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F303" s="3">
         <v>59</v>
@@ -6160,7 +6286,7 @@
         <v>6</v>
       </c>
       <c r="C304" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F304" s="3">
         <v>65</v>
@@ -6174,7 +6300,7 @@
         <v>43</v>
       </c>
       <c r="D305" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F305" s="3">
         <v>66</v>
@@ -6188,7 +6314,7 @@
         <v>43</v>
       </c>
       <c r="D306" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F306" s="3">
         <v>66</v>
@@ -6202,7 +6328,7 @@
         <v>43</v>
       </c>
       <c r="D307" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F307" s="3">
         <v>66</v>
@@ -6216,7 +6342,7 @@
         <v>43</v>
       </c>
       <c r="D308" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F308" s="3">
         <v>66</v>
@@ -6230,7 +6356,7 @@
         <v>43</v>
       </c>
       <c r="D309" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F309" s="3">
         <v>66</v>
@@ -6244,7 +6370,7 @@
         <v>43</v>
       </c>
       <c r="D310" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F310" s="3">
         <v>66</v>
@@ -6258,7 +6384,7 @@
         <v>43</v>
       </c>
       <c r="D311" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F311" s="3">
         <v>66</v>
@@ -6272,7 +6398,7 @@
         <v>43</v>
       </c>
       <c r="D312" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F312" s="3">
         <v>66</v>
@@ -6286,7 +6412,7 @@
         <v>43</v>
       </c>
       <c r="D313" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F313" s="3">
         <v>67</v>
@@ -6294,7 +6420,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B314" t="s">
         <v>3</v>
@@ -6308,17 +6434,113 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
       </c>
       <c r="D315" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F315" s="3">
         <v>71</v>
       </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>520</v>
+      </c>
+      <c r="B316" t="s">
+        <v>3</v>
+      </c>
+      <c r="C316" t="s">
+        <v>4</v>
+      </c>
+      <c r="D316" t="s">
+        <v>267</v>
+      </c>
+      <c r="F316" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>522</v>
+      </c>
+      <c r="B317" t="s">
+        <v>515</v>
+      </c>
+      <c r="D317" t="s">
+        <v>267</v>
+      </c>
+      <c r="F317" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>535</v>
+      </c>
+      <c r="B318" t="s">
+        <v>515</v>
+      </c>
+      <c r="D318" t="s">
+        <v>267</v>
+      </c>
+      <c r="F318" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>537</v>
+      </c>
+      <c r="B319" t="s">
+        <v>515</v>
+      </c>
+      <c r="C319" t="s">
+        <v>4</v>
+      </c>
+      <c r="D319" t="s">
+        <v>267</v>
+      </c>
+      <c r="F319" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>539</v>
+      </c>
+      <c r="B320" t="s">
+        <v>16</v>
+      </c>
+      <c r="D320" t="s">
+        <v>540</v>
+      </c>
+      <c r="F320" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>542</v>
+      </c>
+      <c r="B321" t="s">
+        <v>3</v>
+      </c>
+      <c r="C321" t="s">
+        <v>4</v>
+      </c>
+      <c r="D321" t="s">
+        <v>543</v>
+      </c>
+      <c r="F321" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F322" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6327,10 +6549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6544894E-BE1B-6143-B221-82724E45982C}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6892,7 +7114,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -6900,7 +7122,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -6908,7 +7130,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -6916,7 +7138,119 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>517</v>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
